--- a/biology/Zoologie/Heliconius_besckei/Heliconius_besckei.xlsx
+++ b/biology/Zoologie/Heliconius_besckei/Heliconius_besckei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius besckei est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,11 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius besckei a été décrit par Édouard Ménétries en 1847 sous le nom de Heliconia besckei[1].
-Eorme
-Heliconius besckei f. intermixta Neustetter, 1931;; présent au Brésil dans la région du Rio de Janeiro[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius besckei a été décrit par Édouard Ménétries en 1847 sous le nom de Heliconia besckei.
+</t>
         </is>
       </c>
     </row>
@@ -540,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon d'une envergure de 70 mm à 80 mm, aux ailes allongées et arrondies de couleur marron[2]. Les ailes antérieures sont barrées d'une large bande rose partant des 2/3 du bord costal et ornées d'une ligne blanche partant de la base, les ailes postérieures sont ornées d'une large bande blanche partant du bord interne près de la base.
-Le revers est semblable, en moins coloré.
-</t>
+          <t>Eorme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius besckei f. intermixta Neustetter, 1931;; présent au Brésil dans la région du Rio de Janeiro.</t>
         </is>
       </c>
     </row>
@@ -572,13 +589,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae, Passiflora actinia, Passiflora caerulea, Passiflora edulis, Passiflora menispermifolia et Passiflora vellozii[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon d'une envergure de 70 mm à 80 mm, aux ailes allongées et arrondies de couleur marron. Les ailes antérieures sont barrées d'une large bande rose partant des 2/3 du bord costal et ornées d'une ligne blanche partant de la base, les ailes postérieures sont ornées d'une large bande blanche partant du bord interne près de la base.
+Le revers est semblable, en moins coloré.
 </t>
         </is>
       </c>
@@ -604,13 +623,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Heliconius besckei est présent dans le sud du Brésil[1].
-Biotope</t>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae, Passiflora actinia, Passiflora caerulea, Passiflora edulis, Passiflora menispermifolia et Passiflora vellozii.
+</t>
         </is>
       </c>
     </row>
@@ -635,12 +660,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius besckei est présent dans le sud du Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_besckei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_besckei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pas de statut de protection particulier[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
